--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>310.5952597496862</v>
+        <v>424.9499809626933</v>
       </c>
       <c r="R2">
-        <v>310.5952597496862</v>
+        <v>3824.54982866424</v>
       </c>
       <c r="S2">
-        <v>0.009082225111092608</v>
+        <v>0.01169297362001819</v>
       </c>
       <c r="T2">
-        <v>0.009082225111092608</v>
+        <v>0.01169297362001819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>19172.87676839404</v>
+        <v>20764.97932043199</v>
       </c>
       <c r="R3">
-        <v>19172.87676839404</v>
+        <v>186884.8138838879</v>
       </c>
       <c r="S3">
-        <v>0.5606408255493935</v>
+        <v>0.5713716114634925</v>
       </c>
       <c r="T3">
-        <v>0.5606408255493935</v>
+        <v>0.5713716114634925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H4">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>2776.645919294242</v>
+        <v>3040.696930728973</v>
       </c>
       <c r="R4">
-        <v>2776.645919294242</v>
+        <v>27366.27237656076</v>
       </c>
       <c r="S4">
-        <v>0.08119287883900961</v>
+        <v>0.0836681741153097</v>
       </c>
       <c r="T4">
-        <v>0.08119287883900961</v>
+        <v>0.0836681741153097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>103.6450653299599</v>
+        <v>131.6683337485867</v>
       </c>
       <c r="R5">
-        <v>103.6450653299599</v>
+        <v>1185.01500373728</v>
       </c>
       <c r="S5">
-        <v>0.003030721768707055</v>
+        <v>0.00362300134624347</v>
       </c>
       <c r="T5">
-        <v>0.003030721768707055</v>
+        <v>0.00362300134624347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>6397.953615985533</v>
+        <v>6433.910695209955</v>
       </c>
       <c r="R6">
-        <v>6397.953615985533</v>
+        <v>57905.19625688959</v>
       </c>
       <c r="S6">
-        <v>0.1870848094640578</v>
+        <v>0.1770362428590097</v>
       </c>
       <c r="T6">
-        <v>0.1870848094640578</v>
+        <v>0.1770362428590097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q7">
-        <v>926.5616221424292</v>
+        <v>942.1426432271654</v>
       </c>
       <c r="R7">
-        <v>926.5616221424292</v>
+        <v>8479.283789044488</v>
       </c>
       <c r="S7">
-        <v>0.02709391391993121</v>
+        <v>0.02592410769990504</v>
       </c>
       <c r="T7">
-        <v>0.02709391391993121</v>
+        <v>0.02592410769990504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H8">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N8">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q8">
-        <v>62.92615014935934</v>
+        <v>80.74346945143999</v>
       </c>
       <c r="R8">
-        <v>62.92615014935934</v>
+        <v>726.6912250629599</v>
       </c>
       <c r="S8">
-        <v>0.001840045664223866</v>
+        <v>0.002221746795106501</v>
       </c>
       <c r="T8">
-        <v>0.001840045664223866</v>
+        <v>0.002221746795106501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H9">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N9">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q9">
-        <v>3884.397087371664</v>
+        <v>3945.491348465966</v>
       </c>
       <c r="R9">
-        <v>3884.397087371664</v>
+        <v>35509.42213619369</v>
       </c>
       <c r="S9">
-        <v>0.1135850199285521</v>
+        <v>0.1085646036531361</v>
       </c>
       <c r="T9">
-        <v>0.1135850199285521</v>
+        <v>0.1085646036531361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H10">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q10">
-        <v>562.5444450437783</v>
+        <v>577.753690401874</v>
       </c>
       <c r="R10">
-        <v>562.5444450437783</v>
+        <v>5199.783213616866</v>
       </c>
       <c r="S10">
-        <v>0.01644955975503236</v>
+        <v>0.01589753844777876</v>
       </c>
       <c r="T10">
-        <v>0.01644955975503236</v>
+        <v>0.01589753844777876</v>
       </c>
     </row>
   </sheetData>
